--- a/biology/Zoologie/Raphaël_Blanchard/Raphaël_Blanchard.xlsx
+++ b/biology/Zoologie/Raphaël_Blanchard/Raphaël_Blanchard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rapha%C3%ABl_Blanchard</t>
+          <t>Raphaël_Blanchard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raphaël Anatole Émile Blanchard (né le 28 février 1857 à Saint-Christophe-sur-le-Nais en Indre-et-Loire, mort le 7 février 1919 à Paris) fut un médecin et naturaliste français[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raphaël Anatole Émile Blanchard (né le 28 février 1857 à Saint-Christophe-sur-le-Nais en Indre-et-Loire, mort le 7 février 1919 à Paris) fut un médecin et naturaliste français,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rapha%C3%ABl_Blanchard</t>
+          <t>Raphaël_Blanchard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite d'études médicales et scientifiques, Raphaël Blanchard mena deux carrières de front : la médecine et la zoologie.
-Médecine
-Après ses études classiques, à 17 ans, il commence des études médicales à la Faculté de Paris en octobre 1874.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Raphaël_Blanchard</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rapha%C3%ABl_Blanchard</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après ses études classiques, à 17 ans, il commence des études médicales à la Faculté de Paris en octobre 1874.
 Il s’intéressa très tôt aux sciences naturelles puisque dès 1876 il était attaché au laboratoire d'histologie zoologique à l’École des Hautes-Études.
 De 1875 à 1877, étudiant en médecine et travailleur au laboratoire d'histologie zoologique, il fut le préparateur de Charles Robin et de Georges Pouchet. Il apprit les fondements de tératologie expérimentale avec Pouchet.
 En 1877, une bourse de voyages lui est décernée par le Conseil municipal de Paris, elle lui permet de fréquenter, pendant un an en Allemagne et en Autriche, les universités de Vienne, Leipzig, Berlin et Bonn. Il étudie l'embryologie à Vienne, puis l'anatomie comparée à Bonn.
@@ -534,14 +583,49 @@
 Il y transforme complètement l'enseignement et y organise, grâce à ses collections personnelles, un musée de parasitologie.
 À sa demande, la chaire d'histoire naturelle médicale prendra le nom de chaire de parasitologie en novembre 1906.
 Dès 1898, il décida de fonder la revue périodique spécialisée, les Archives de parasitologie et développa une collection d’ouvrages destinés aux praticiens.
-Puis, en 1902, il crée l’Institut de médecine coloniale de la Faculté de médecine de Paris. Cet institut est destiné à donner une formation en parasitologie tropicale aux médecins, français et étrangers, exerçant dans les pays chauds[3].
+Puis, en 1902, il crée l’Institut de médecine coloniale de la Faculté de médecine de Paris. Cet institut est destiné à donner une formation en parasitologie tropicale aux médecins, français et étrangers, exerçant dans les pays chauds.
 La même année, le 29 janvier 1902, Blanchard fondait, avec quelques collègues, la Société française d’histoire de la médecine.
 En 1909, il devient membre de la Société de pathologie exotique.
 À l’Académie de médecine, il en était le secrétaire annuel de 1912 à 1919.
 Blanchard a été un chercheur qui s’est occupé de physiologie, d’anatomie pathologique et de tératologie, mais peu de médecine clinique, car il était avant tout un naturaliste.
-Il était considéré comme un des pionniers français de la parasitologie et de la zoologie médicale[4].
-Zoologie
-Blanchard fut un des grands animateurs de la zoologie française de la fin du XIXe siècle.
+Il était considéré comme un des pionniers français de la parasitologie et de la zoologie médicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Raphaël_Blanchard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rapha%C3%ABl_Blanchard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Zoologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blanchard fut un des grands animateurs de la zoologie française de la fin du XIXe siècle.
 Malgré son jeune âge, il participa à la séance inaugurale de la Société zoologique de France le 8 juin 1876, en tant que membre fondateur.
 Attiré par la zoologie, il sera, en 1879, le secrétaire général de la Société zoologique de France, et le demeurera jusqu’en 1900.
 De 1879 à 1900, il publia de nombreux travaux dans le Bulletin de la Société zoologique de France et les Mémoires de cette société.
@@ -549,7 +633,7 @@
 Il se spécialisa dans l’étude des hirudinées (sangsues), des diptères parasites (moustiques). Il fit aussi diverses recherches sur les animaux les plus variés : protozoaires, mollusques, vers parasites, acariens, myriapodes, insectes et même crocodiles.
 De 1889 à 1904, il participe aux congrès internationaux de zoologie (tri-annuels) au cours desquels il fait adopter des règles précises concernant la nomenclature zoologique.
 En 1889, il est secrétaire général du 1er Congrès international de zoologie qui se tient à Paris à l’occasion de l’Exposition universelle.
-Sa participation fut importante dans les travaux de deux des sections du congrès : la section sur la distribution des animaux et la section sur la nomenclature zoologique[5].
+Sa participation fut importante dans les travaux de deux des sections du congrès : la section sur la distribution des animaux et la section sur la nomenclature zoologique.
 Tous ces travaux valurent à Blanchard la vice-présidence des deuxième et cinquième Congrès internationaux de zoologie qui se tinrent respectivement à Moscou en 1892 et à Berlin en 1901.
 En 1895, il devient membre de la Commission internationale de nomenclature zoologique lors du troisième Congrès international de zoologie à Leyde.
 En 1898, il accepta la présidence de cette commission internationale permanente lors du quatrième Congrès international de zoologie à Cambridge en Angleterre.
@@ -558,63 +642,67 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Rapha%C3%ABl_Blanchard</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Raphaël_Blanchard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rapha%C3%ABl_Blanchard</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Officier d’Académie en 1888
-Officier de la Légion d’honneur en 1912[6]
+Officier de la Légion d’honneur en 1912
 Officier de l’Instruction publique et du Mérite agricole</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Rapha%C3%ABl_Blanchard</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Raphaël_Blanchard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rapha%C3%ABl_Blanchard</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il publia un nombre considérable d’écrits (environ 500 publications). Certains articles portent sur des sujets d'anthropologie, de pédagogie, d'histoire des sciences.
 Mais les publications principales, des articles dans les revues scientifiques et des monographies, concernent ses travaux de recherches de zoologie descriptive et médicale. Une cinquantaine d'articles concernent les hirudinées et une trentaine les diptères.
